--- a/NB-DT-Codes/golf_dataset-Exercise-2-Completed.xlsx
+++ b/NB-DT-Codes/golf_dataset-Exercise-2-Completed.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE6E92D-89EA-4B43-8D02-DCB657CEC4A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B556BB3-CA4D-482F-B5D0-DB5A03074618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -490,19 +490,31 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -516,18 +528,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1529,8 +1529,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19856824" y="1266265"/>
-          <a:ext cx="4932787" cy="1549746"/>
+          <a:off x="18540132" y="1333501"/>
+          <a:ext cx="4619023" cy="1560951"/>
           <a:chOff x="19856824" y="1266265"/>
           <a:chExt cx="4932787" cy="1549746"/>
         </a:xfrm>
@@ -1879,8 +1879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19873633" y="7440706"/>
-          <a:ext cx="5235345" cy="2773455"/>
+          <a:off x="18556941" y="7620000"/>
+          <a:ext cx="4876757" cy="2773455"/>
           <a:chOff x="19873633" y="7440706"/>
           <a:chExt cx="5235345" cy="2773455"/>
         </a:xfrm>
@@ -2453,8 +2453,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19780784" y="12219214"/>
-          <a:ext cx="5235345" cy="3612805"/>
+          <a:off x="18464092" y="12443332"/>
+          <a:ext cx="4876757" cy="3668834"/>
           <a:chOff x="19777983" y="12123964"/>
           <a:chExt cx="5260959" cy="3577587"/>
         </a:xfrm>
@@ -3120,8 +3120,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19545860" y="16502663"/>
-          <a:ext cx="5235345" cy="4688335"/>
+          <a:off x="18273992" y="16827633"/>
+          <a:ext cx="4876757" cy="4890041"/>
           <a:chOff x="19539857" y="16389803"/>
           <a:chExt cx="5260959" cy="4736762"/>
         </a:xfrm>
@@ -4073,8 +4073,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19668325" y="22880410"/>
-          <a:ext cx="8084375" cy="4835214"/>
+          <a:off x="18358357" y="23519145"/>
+          <a:ext cx="7539769" cy="4913655"/>
           <a:chOff x="19662322" y="22860000"/>
           <a:chExt cx="8125997" cy="4791191"/>
         </a:xfrm>
@@ -14720,31 +14720,33 @@
   <dimension ref="A1:AC64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F15"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="9.1328125" style="1"/>
-    <col min="9" max="9" width="10.265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.59765625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9.1328125" style="1"/>
-    <col min="16" max="16" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1328125" style="1"/>
-    <col min="18" max="18" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -14790,7 +14792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -14840,7 +14842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -14890,7 +14892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -14940,7 +14942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -14990,7 +14992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -15040,7 +15042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -15090,7 +15092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -15140,7 +15142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -15190,7 +15192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>24</v>
       </c>
@@ -15240,7 +15242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -15290,7 +15292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
@@ -15340,7 +15342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
@@ -15390,7 +15392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -15440,7 +15442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -15490,7 +15492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
@@ -15510,7 +15512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -15530,7 +15532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -15538,7 +15540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -15548,23 +15550,23 @@
       <c r="J23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="P23" s="25" t="s">
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="P23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="V23" s="25" t="s">
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="V23" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="W23" s="25"/>
-      <c r="X23" s="25"/>
-    </row>
-    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I24" s="5" t="s">
         <v>5</v>
       </c>
@@ -15599,7 +15601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I25" s="5" t="s">
         <v>5</v>
       </c>
@@ -15638,7 +15640,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I26" s="5" t="s">
         <v>6</v>
       </c>
@@ -15681,7 +15683,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -15730,7 +15732,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -15762,7 +15764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>1</v>
       </c>
@@ -15782,7 +15784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>2</v>
       </c>
@@ -15802,7 +15804,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>3</v>
       </c>
@@ -15816,7 +15818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -15829,18 +15831,18 @@
       <c r="J32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P32" s="25" t="s">
+      <c r="P32" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="25"/>
-      <c r="V32" s="25" t="s">
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="V32" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="W32" s="25"/>
-      <c r="X32" s="25"/>
-    </row>
-    <row r="33" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+    </row>
+    <row r="33" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I33" s="5" t="s">
         <v>7</v>
       </c>
@@ -15866,7 +15868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I34" s="5" t="s">
         <v>5</v>
       </c>
@@ -15901,7 +15903,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="35" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I35" s="5" t="s">
         <v>6</v>
       </c>
@@ -15936,7 +15938,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="36" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="36" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I36" s="5" t="s">
         <v>6</v>
       </c>
@@ -15971,7 +15973,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="37" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="37" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I37" s="5" t="s">
         <v>7</v>
       </c>
@@ -15988,7 +15990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="9:29" x14ac:dyDescent="0.45">
+    <row r="38" spans="9:29" x14ac:dyDescent="0.25">
       <c r="Q38" s="22" t="s">
         <v>64</v>
       </c>
@@ -15996,7 +15998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="39" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M39" s="3" t="s">
         <v>1</v>
       </c>
@@ -16007,12 +16009,12 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="40" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M40" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I41" s="3" t="s">
         <v>0</v>
       </c>
@@ -16022,13 +16024,13 @@
       <c r="K41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="24" t="s">
+      <c r="M41" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-    </row>
-    <row r="42" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+    </row>
+    <row r="42" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I42" s="5" t="s">
         <v>5</v>
       </c>
@@ -16072,7 +16074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I43" s="5" t="s">
         <v>5</v>
       </c>
@@ -16132,7 +16134,7 @@
         <v>0.12640000000000001</v>
       </c>
     </row>
-    <row r="44" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I44" s="5" t="s">
         <v>6</v>
       </c>
@@ -16184,7 +16186,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="45" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I45" s="5" t="s">
         <v>7</v>
       </c>
@@ -16237,7 +16239,7 @@
         <v>8.9492187500000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I46" s="5" t="s">
         <v>7</v>
       </c>
@@ -16285,7 +16287,7 @@
         <v>4.9382716049382713E-2</v>
       </c>
     </row>
-    <row r="47" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I47" s="5" t="s">
         <v>7</v>
       </c>
@@ -16324,7 +16326,7 @@
         <v>9.8765432098765427E-2</v>
       </c>
     </row>
-    <row r="48" spans="9:29" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="9:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I48" s="5" t="s">
         <v>6</v>
       </c>
@@ -16366,7 +16368,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="49" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I49" s="5" t="s">
         <v>5</v>
       </c>
@@ -16408,7 +16410,7 @@
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="50" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I50" s="5" t="s">
         <v>5</v>
       </c>
@@ -16418,11 +16420,11 @@
       <c r="K50" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M50" s="24" t="s">
+      <c r="M50" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
       <c r="Q50" s="18" t="s">
         <v>5</v>
       </c>
@@ -16452,7 +16454,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="51" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I51" s="5" t="s">
         <v>7</v>
       </c>
@@ -16500,7 +16502,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="52" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I52" s="5" t="s">
         <v>5</v>
       </c>
@@ -16530,7 +16532,7 @@
         <v>0.64285714285714279</v>
       </c>
     </row>
-    <row r="53" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I53" s="5" t="s">
         <v>6</v>
       </c>
@@ -16552,7 +16554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I54" s="5" t="s">
         <v>6</v>
       </c>
@@ -16574,7 +16576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I55" s="5" t="s">
         <v>7</v>
       </c>
@@ -16594,24 +16596,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M57" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="9:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="9:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="M58" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="9:25" x14ac:dyDescent="0.45">
-      <c r="M59" s="24" t="s">
+    <row r="59" spans="9:25" x14ac:dyDescent="0.25">
+      <c r="M59" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-    </row>
-    <row r="60" spans="9:25" x14ac:dyDescent="0.45">
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
+    </row>
+    <row r="60" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M60" s="20" t="s">
         <v>0</v>
       </c>
@@ -16622,7 +16624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="61" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M61" s="18" t="s">
         <v>6</v>
       </c>
@@ -16635,7 +16637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="62" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M62" s="18" t="s">
         <v>60</v>
       </c>
@@ -16648,7 +16650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="63" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M63" s="18" t="s">
         <v>5</v>
       </c>
@@ -16661,7 +16663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="9:25" x14ac:dyDescent="0.45">
+    <row r="64" spans="9:25" x14ac:dyDescent="0.25">
       <c r="M64" s="19" t="s">
         <v>61</v>
       </c>
@@ -16687,7 +16689,7 @@
     <mergeCell ref="M41:O41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="T35" formula="1"/>
   </ignoredErrors>
@@ -16702,60 +16704,60 @@
       <selection activeCell="AQ141" sqref="AQ141"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.59765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="2.59765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.3984375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="2.796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="12.86328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.73046875" style="1" customWidth="1"/>
-    <col min="16" max="18" width="10.86328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.73046875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.3984375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="18" width="10.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.85546875" style="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1328125" style="1"/>
-    <col min="24" max="24" width="8.1328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.86328125" style="11" customWidth="1"/>
-    <col min="26" max="16384" width="9.1328125" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="8.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.85546875" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I2" s="1"/>
       <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="I5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="2:25" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.45">
-      <c r="Q8" s="27" t="s">
+    <row r="6" spans="2:25" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R8" s="27"/>
-    </row>
-    <row r="9" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R8" s="28"/>
+    </row>
+    <row r="9" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -16802,7 +16804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -16852,7 +16854,7 @@
         <v>0.94028595867063092</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -16872,7 +16874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -16891,12 +16893,12 @@
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="27" t="s">
+      <c r="Q12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="27"/>
-    </row>
-    <row r="13" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R12" s="28"/>
+    </row>
+    <row r="13" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -16946,7 +16948,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -16999,12 +17001,12 @@
         <f>-(Q14*LOG(Q14,2)+R14*LOG(R14,2))</f>
         <v>1</v>
       </c>
-      <c r="T14" s="28">
+      <c r="T14" s="31">
         <f>S10-SUMPRODUCT(N14:N15,S14:S15)</f>
         <v>4.8127030408269267E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -17057,9 +17059,9 @@
         <f>-(Q15*LOG(Q15,2)+R15*LOG(R15,2))</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="T15" s="29"/>
-    </row>
-    <row r="16" spans="2:25" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T15" s="33"/>
+    </row>
+    <row r="16" spans="2:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -17079,7 +17081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -17099,7 +17101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -17118,12 +17120,12 @@
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q18" s="27" t="s">
+      <c r="Q18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="27"/>
-    </row>
-    <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R18" s="28"/>
+    </row>
+    <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -17173,7 +17175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -17225,12 +17227,12 @@
       <c r="S20" s="6">
         <v>0</v>
       </c>
-      <c r="T20" s="30">
+      <c r="T20" s="34">
         <f>S10-SUMPRODUCT(N20:N22,S20:S22)</f>
         <v>0.24674981977443911</v>
       </c>
     </row>
-    <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
@@ -17264,28 +17266,28 @@
         <v>0.35714285714285715</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" ref="O21:O22" si="1">COUNTIFS($G$10:$G$23,"=yes",$C$10:$C$23,_xlfn.CONCAT("=",K21))</f>
+        <f t="shared" ref="O21" si="1">COUNTIFS($G$10:$G$23,"=yes",$C$10:$C$23,_xlfn.CONCAT("=",K21))</f>
         <v>2</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" ref="P21:P22" si="2">COUNTIFS($G$10:$G$23,"=no",$C$10:$C$23,_xlfn.CONCAT("=",K21))</f>
+        <f t="shared" ref="P21" si="2">COUNTIFS($G$10:$G$23,"=no",$C$10:$C$23,_xlfn.CONCAT("=",K21))</f>
         <v>3</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" ref="Q21:Q22" si="3">O21/M21</f>
+        <f t="shared" ref="Q21" si="3">O21/M21</f>
         <v>0.4</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" ref="R21:R22" si="4">P21/M21</f>
+        <f t="shared" ref="R21" si="4">P21/M21</f>
         <v>0.6</v>
       </c>
-      <c r="S21" s="35">
+      <c r="S21" s="24">
         <f>-(Q21*LOG(Q21,2)+R21*LOG(R21,2))</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="T21" s="31"/>
-    </row>
-    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T21" s="35"/>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>29</v>
       </c>
@@ -17338,9 +17340,9 @@
         <f>-(Q22*LOG(Q22,2)+R22*LOG(R22,2))</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="T22" s="32"/>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T22" s="36"/>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
@@ -17360,13 +17362,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q25" s="27" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R25" s="27"/>
-    </row>
-    <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R25" s="28"/>
+    </row>
+    <row r="26" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K26" s="3" t="s">
         <v>1</v>
       </c>
@@ -17398,7 +17400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
@@ -17439,12 +17441,12 @@
         <f>-(Q27*LOG(Q27,2)+R27*LOG(R27,2))</f>
         <v>1</v>
       </c>
-      <c r="T27" s="28">
+      <c r="T27" s="31">
         <f>S10-SUMPRODUCT(N27:N29,S27:S29)</f>
         <v>2.9222565658954647E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
@@ -17458,7 +17460,7 @@
         <v>14</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" ref="M28:M29" si="5">COUNTIF($D$10:$D$23,_xlfn.CONCAT("=",K28))</f>
+        <f t="shared" ref="M28" si="5">COUNTIF($D$10:$D$23,_xlfn.CONCAT("=",K28))</f>
         <v>6</v>
       </c>
       <c r="N28" s="9">
@@ -17466,11 +17468,11 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" ref="O28:O29" si="6">COUNTIFS($G$10:$G$23,"=yes",$D$10:$D$23,_xlfn.CONCAT("=",K28))</f>
+        <f t="shared" ref="O28" si="6">COUNTIFS($G$10:$G$23,"=yes",$D$10:$D$23,_xlfn.CONCAT("=",K28))</f>
         <v>4</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" ref="P28:P29" si="7">COUNTIFS($G$10:$G$23,"=no",$D$10:$D$23,_xlfn.CONCAT("=",K28))</f>
+        <f t="shared" ref="P28" si="7">COUNTIFS($G$10:$G$23,"=no",$D$10:$D$23,_xlfn.CONCAT("=",K28))</f>
         <v>2</v>
       </c>
       <c r="Q28" s="6">
@@ -17485,9 +17487,9 @@
         <f>-(Q28*LOG(Q28,2)+R28*LOG(R28,2))</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="T28" s="33"/>
-    </row>
-    <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T28" s="32"/>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
@@ -17525,15 +17527,15 @@
         <f>-(Q29*LOG(Q29,2)+R29*LOG(R29,2))</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="T29" s="29"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q32" s="27" t="s">
+      <c r="T29" s="33"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q32" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R32" s="27"/>
-    </row>
-    <row r="33" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R32" s="28"/>
+    </row>
+    <row r="33" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>15</v>
       </c>
@@ -17583,7 +17585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>30</v>
       </c>
@@ -17636,12 +17638,12 @@
         <f>-(Q34*LOG(Q34,2)+R34*LOG(R34,2))</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="T34" s="28">
+      <c r="T34" s="31">
         <f>S10-SUMPRODUCT(N34:N35,S34:S35)</f>
         <v>0.10224356360985054</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K35" s="5" t="s">
         <v>14</v>
       </c>
@@ -17676,12 +17678,12 @@
         <f>-(Q35*LOG(Q35,2)+R35*LOG(R35,2))</f>
         <v>0.76420450650862026</v>
       </c>
-      <c r="T35" s="29"/>
-    </row>
-    <row r="38" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="T35" s="33"/>
+    </row>
+    <row r="38" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T38" s="12"/>
     </row>
-    <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -17700,12 +17702,12 @@
       <c r="G40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q40" s="27" t="s">
+      <c r="Q40" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R40" s="27"/>
-    </row>
-    <row r="41" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R40" s="28"/>
+    </row>
+    <row r="41" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>18</v>
       </c>
@@ -17755,7 +17757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>22</v>
       </c>
@@ -17802,7 +17804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>27</v>
       </c>
@@ -17822,7 +17824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>29</v>
       </c>
@@ -17842,7 +17844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -17850,7 +17852,7 @@
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -17858,7 +17860,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -17866,7 +17868,7 @@
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -17874,7 +17876,7 @@
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -17882,7 +17884,7 @@
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -17890,7 +17892,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -17898,7 +17900,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -17906,7 +17908,7 @@
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
     </row>
-    <row r="53" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -17914,7 +17916,7 @@
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
     </row>
-    <row r="54" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -17922,7 +17924,7 @@
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
     </row>
-    <row r="55" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -17930,7 +17932,7 @@
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
     </row>
-    <row r="56" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -17938,7 +17940,7 @@
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
     </row>
-    <row r="57" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -17946,7 +17948,7 @@
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
     </row>
-    <row r="58" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -17954,7 +17956,7 @@
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -17962,10 +17964,10 @@
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
     </row>
-    <row r="62" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T62" s="12"/>
     </row>
-    <row r="64" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>15</v>
       </c>
@@ -17984,12 +17986,12 @@
       <c r="G64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q64" s="27" t="s">
+      <c r="Q64" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R64" s="27"/>
-    </row>
-    <row r="65" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R64" s="28"/>
+    </row>
+    <row r="65" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>16</v>
       </c>
@@ -18039,7 +18041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>17</v>
       </c>
@@ -18091,12 +18093,12 @@
       <c r="S66" s="6">
         <v>0</v>
       </c>
-      <c r="T66" s="28">
+      <c r="T66" s="31">
         <f>S21-SUMPRODUCT(N66:N68,S66:S68)</f>
         <v>0.57095059445466856</v>
       </c>
     </row>
-    <row r="67" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>23</v>
       </c>
@@ -18149,9 +18151,9 @@
         <f>-(Q67*LOG(Q67,2)+R67*LOG(R67,2))</f>
         <v>1</v>
       </c>
-      <c r="T67" s="33"/>
-    </row>
-    <row r="68" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T67" s="32"/>
+    </row>
+    <row r="68" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>24</v>
       </c>
@@ -18203,9 +18205,9 @@
       <c r="S68" s="6">
         <v>0</v>
       </c>
-      <c r="T68" s="29"/>
-    </row>
-    <row r="69" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T68" s="33"/>
+    </row>
+    <row r="69" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>26</v>
       </c>
@@ -18225,13 +18227,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q71" s="27" t="s">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q71" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R71" s="27"/>
-    </row>
-    <row r="72" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R71" s="28"/>
+    </row>
+    <row r="72" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K72" s="3" t="s">
         <v>2</v>
       </c>
@@ -18263,7 +18265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K73" s="5" t="s">
         <v>11</v>
       </c>
@@ -18297,12 +18299,12 @@
       <c r="S73" s="6">
         <v>0</v>
       </c>
-      <c r="T73" s="26">
+      <c r="T73" s="29">
         <f>S21-SUMPRODUCT(N73:N74,S73:S74)</f>
         <v>0.97095059445466858</v>
       </c>
     </row>
-    <row r="74" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K74" s="5" t="s">
         <v>14</v>
       </c>
@@ -18336,16 +18338,16 @@
       <c r="S74" s="6">
         <v>0</v>
       </c>
-      <c r="T74" s="26"/>
-    </row>
-    <row r="75" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q77" s="27" t="s">
+      <c r="T74" s="29"/>
+    </row>
+    <row r="75" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q77" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R77" s="27"/>
-    </row>
-    <row r="78" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R77" s="28"/>
+    </row>
+    <row r="78" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K78" s="3" t="s">
         <v>41</v>
       </c>
@@ -18377,7 +18379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K79" s="5" t="b">
         <v>1</v>
       </c>
@@ -18412,12 +18414,12 @@
         <f>-(Q79*LOG(Q79,2)+R79*LOG(R79,2))</f>
         <v>1</v>
       </c>
-      <c r="T79" s="34">
+      <c r="T79" s="30">
         <f>S21-SUMPRODUCT(N79:N80,S79:S80)</f>
         <v>1.9973094021974891E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K80" s="5" t="b">
         <v>0</v>
       </c>
@@ -18452,12 +18454,12 @@
         <f>-(Q80*LOG(Q80,2)+R80*LOG(R80,2))</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="T80" s="34"/>
-    </row>
-    <row r="84" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="T80" s="30"/>
+    </row>
+    <row r="84" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="T84" s="12"/>
     </row>
-    <row r="86" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>15</v>
       </c>
@@ -18477,17 +18479,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="36" t="s">
+      <c r="E87" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F87" s="5" t="b">
@@ -18497,17 +18499,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F88" s="5" t="b">
@@ -18517,17 +18519,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="25" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="5" t="b">
@@ -18537,7 +18539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -18562,7 +18564,7 @@
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
     </row>
-    <row r="93" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>15</v>
       </c>
@@ -18582,7 +18584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>24</v>
       </c>
@@ -18602,7 +18604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
         <v>26</v>
       </c>
@@ -18622,8 +18624,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:23" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="V121" s="3" t="s">
         <v>45</v>
       </c>
@@ -18632,7 +18634,7 @@
         <v>0.97095059445466858</v>
       </c>
     </row>
-    <row r="122" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
         <v>15</v>
       </c>
@@ -18651,16 +18653,16 @@
       <c r="G122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Q122" s="27" t="s">
+      <c r="Q122" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R122" s="27"/>
-    </row>
-    <row r="123" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R122" s="28"/>
+    </row>
+    <row r="123" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B123" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C123" s="36" t="s">
+      <c r="C123" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D123" s="5" t="s">
@@ -18706,11 +18708,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B124" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C124" s="36" t="s">
+      <c r="C124" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D124" s="5" t="s">
@@ -18756,16 +18758,16 @@
       <c r="S124" s="6">
         <v>0</v>
       </c>
-      <c r="T124" s="28">
+      <c r="T124" s="31">
         <f>W121-SUMPRODUCT(N124:N126,S124:S126)</f>
         <v>1.9973094021974891E-2</v>
       </c>
     </row>
-    <row r="125" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C125" s="36" t="s">
+      <c r="C125" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D125" s="5" t="s">
@@ -18814,13 +18816,13 @@
         <f>-(Q125*LOG(Q125,2)+R125*LOG(R125,2))</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="T125" s="33"/>
-    </row>
-    <row r="126" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T125" s="32"/>
+    </row>
+    <row r="126" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B126" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C126" s="36" t="s">
+      <c r="C126" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D126" s="5" t="s">
@@ -18869,13 +18871,13 @@
         <f>-(Q126*LOG(Q126,2)+R126*LOG(R126,2))</f>
         <v>1</v>
       </c>
-      <c r="T126" s="29"/>
-    </row>
-    <row r="127" spans="2:23" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T126" s="33"/>
+    </row>
+    <row r="127" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B127" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C127" s="36" t="s">
+      <c r="C127" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D127" s="5" t="s">
@@ -18891,13 +18893,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q129" s="27" t="s">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q129" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R129" s="27"/>
-    </row>
-    <row r="130" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R129" s="28"/>
+    </row>
+    <row r="130" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K130" s="3" t="s">
         <v>2</v>
       </c>
@@ -18929,7 +18931,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K131" s="5" t="s">
         <v>11</v>
       </c>
@@ -18963,12 +18965,12 @@
       <c r="S131" s="6">
         <v>0</v>
       </c>
-      <c r="T131" s="34">
+      <c r="T131" s="30">
         <f>W121-SUMPRODUCT(N131:N132,S131:S132)</f>
         <v>0.17095059445466854</v>
       </c>
     </row>
-    <row r="132" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K132" s="5" t="s">
         <v>14</v>
       </c>
@@ -19003,15 +19005,15 @@
         <f>-(Q132*LOG(Q132,2)+R132*LOG(R132,2))</f>
         <v>1</v>
       </c>
-      <c r="T132" s="34"/>
-    </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="Q135" s="27" t="s">
+      <c r="T132" s="30"/>
+    </row>
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q135" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="R135" s="27"/>
-    </row>
-    <row r="136" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="R135" s="28"/>
+    </row>
+    <row r="136" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K136" s="3" t="s">
         <v>41</v>
       </c>
@@ -19043,7 +19045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K137" s="5" t="b">
         <v>1</v>
       </c>
@@ -19077,12 +19079,12 @@
       <c r="S137" s="6">
         <v>0</v>
       </c>
-      <c r="T137" s="26">
+      <c r="T137" s="29">
         <f>W121-SUMPRODUCT(N137:N138,S137:S138)</f>
         <v>0.97095059445466858</v>
       </c>
     </row>
-    <row r="138" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K138" s="5" t="b">
         <v>0</v>
       </c>
@@ -19116,9 +19118,9 @@
       <c r="S138" s="6">
         <v>0</v>
       </c>
-      <c r="T138" s="26"/>
-    </row>
-    <row r="140" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="T138" s="29"/>
+    </row>
+    <row r="140" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B140" s="3" t="s">
         <v>15</v>
       </c>
@@ -19138,11 +19140,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="141" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="36" t="s">
+      <c r="C141" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D141" s="5" t="s">
@@ -19158,11 +19160,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="36" t="s">
+      <c r="C142" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D142" s="5" t="s">
@@ -19178,11 +19180,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="2:20" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C143" s="36" t="s">
+      <c r="C143" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D143" s="5" t="s">
@@ -19198,7 +19200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B147" s="3" t="s">
         <v>15</v>
       </c>
@@ -19218,11 +19220,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C148" s="36" t="s">
+      <c r="C148" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D148" s="5" t="s">
@@ -19238,11 +19240,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C149" s="36" t="s">
+      <c r="C149" s="25" t="s">
         <v>7</v>
       </c>
       <c r="D149" s="5" t="s">
@@ -19258,7 +19260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AB150" s="3" t="s">
         <v>15</v>
       </c>
@@ -19278,7 +19280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:33" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="AB151" s="5" t="s">
         <v>30</v>
       </c>
@@ -19300,14 +19302,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="T137:T138"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="T79:T80"/>
-    <mergeCell ref="Q122:R122"/>
-    <mergeCell ref="T124:T126"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="T131:T132"/>
     <mergeCell ref="T73:T74"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q32:R32"/>
@@ -19322,6 +19316,14 @@
     <mergeCell ref="Q64:R64"/>
     <mergeCell ref="T66:T68"/>
     <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="T137:T138"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="T124:T126"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="T131:T132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -19336,59 +19338,59 @@
       <selection activeCell="S20" sqref="S20:S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1"/>
-    <col min="8" max="8" width="2.3984375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" style="1"/>
-    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.86328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.73046875" style="1" customWidth="1"/>
-    <col min="15" max="17" width="10.86328125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.73046875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="2.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1328125" style="1"/>
-    <col min="23" max="23" width="8.1328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="2.86328125" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" style="11" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="P8" s="27" t="s">
+    <row r="6" spans="1:24" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -19435,7 +19437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -19485,7 +19487,7 @@
         <v>0.94028595867063092</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -19505,7 +19507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
@@ -19524,12 +19526,12 @@
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -19579,7 +19581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -19632,12 +19634,12 @@
         <f>1-(P14^2)-(Q14^2)</f>
         <v>0.5</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="31">
         <f>SUMPRODUCT(R14:R15,M14:M15)</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>21</v>
       </c>
@@ -19690,9 +19692,9 @@
         <f>1-(P15^2)-(Q15^2)</f>
         <v>0.375</v>
       </c>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S15" s="33"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
@@ -19712,7 +19714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -19732,7 +19734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -19751,12 +19753,12 @@
       <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q18" s="27"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -19806,7 +19808,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -19859,12 +19861,12 @@
         <f>1-(P20^2)-(Q20^2)</f>
         <v>0</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="34">
         <f>SUMPRODUCT(R20:R22,M20:M22)</f>
         <v>0.34285714285714286</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -19917,12 +19919,12 @@
         <f>1-(P21^2)-(Q21^2)</f>
         <v>0.48</v>
       </c>
-      <c r="S21" s="31"/>
+      <c r="S21" s="35"/>
       <c r="U21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -19975,12 +19977,12 @@
         <f t="shared" ref="R22" si="1">1-(P22^2)-(Q22^2)</f>
         <v>0.48</v>
       </c>
-      <c r="S22" s="32"/>
+      <c r="S22" s="36"/>
       <c r="U22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
@@ -20000,13 +20002,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P25" s="27" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P25" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" s="27"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J26" s="3" t="s">
         <v>1</v>
       </c>
@@ -20038,7 +20040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
@@ -20079,12 +20081,12 @@
         <f>1-(P27^2)-(Q27^2)</f>
         <v>0.5</v>
       </c>
-      <c r="S27" s="28">
+      <c r="S27" s="31">
         <f>SUMPRODUCT(R27:R29,M27:M29)</f>
         <v>0.44047619047619047</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
         <v>33</v>
       </c>
@@ -20125,9 +20127,9 @@
         <f t="shared" ref="R28:R29" si="3">1-(P28^2)-(Q28^2)</f>
         <v>0.44444444444444448</v>
       </c>
-      <c r="S28" s="33"/>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S28" s="32"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
@@ -20165,15 +20167,15 @@
         <f t="shared" si="3"/>
         <v>0.375</v>
       </c>
-      <c r="S29" s="29"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P32" s="27" t="s">
+      <c r="S29" s="33"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P32" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q32" s="27"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q32" s="28"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J33" s="3" t="s">
         <v>2</v>
       </c>
@@ -20205,7 +20207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J34" s="5" t="s">
         <v>11</v>
       </c>
@@ -20240,12 +20242,12 @@
         <f t="shared" ref="R34:R35" si="4">1-(P34^2)-(Q34^2)</f>
         <v>0.48</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="31">
         <f>SUMPRODUCT(R34:R35,M34:M35)</f>
         <v>0.3936507936507937</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J35" s="5" t="s">
         <v>14</v>
       </c>
@@ -20280,12 +20282,12 @@
         <f t="shared" si="4"/>
         <v>0.34567901234567899</v>
       </c>
-      <c r="S35" s="29"/>
-    </row>
-    <row r="38" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="S35" s="33"/>
+    </row>
+    <row r="38" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S38" s="12"/>
     </row>
-    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
@@ -20304,12 +20306,12 @@
       <c r="F40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P40" s="27" t="s">
+      <c r="P40" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q40" s="27"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q40" s="28"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>18</v>
       </c>
@@ -20359,7 +20361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
@@ -20413,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>27</v>
       </c>
@@ -20433,7 +20435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>29</v>
       </c>
@@ -20453,7 +20455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -20461,7 +20463,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -20469,7 +20471,7 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
-    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -20477,7 +20479,7 @@
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -20485,7 +20487,7 @@
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
-    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -20493,7 +20495,7 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -20501,7 +20503,7 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -20509,7 +20511,7 @@
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -20517,7 +20519,7 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
     </row>
-    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -20525,7 +20527,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -20533,7 +20535,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -20541,7 +20543,7 @@
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -20549,7 +20551,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -20557,7 +20559,7 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -20565,7 +20567,7 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -20573,10 +20575,10 @@
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="62" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S62" s="12"/>
     </row>
-    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>15</v>
       </c>
@@ -20595,12 +20597,12 @@
       <c r="F64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P64" s="27" t="s">
+      <c r="P64" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q64" s="27"/>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q64" s="28"/>
+    </row>
+    <row r="65" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>16</v>
       </c>
@@ -20650,7 +20652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>17</v>
       </c>
@@ -20703,12 +20705,12 @@
         <f>1-(P66^2)-(Q66^2)</f>
         <v>0</v>
       </c>
-      <c r="S66" s="28">
+      <c r="S66" s="31">
         <f>SUMPRODUCT(R66:R68,M66:M68)</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>23</v>
       </c>
@@ -20761,9 +20763,9 @@
         <f t="shared" ref="R67:R68" si="6">1-(P67^2)-(Q67^2)</f>
         <v>0.5</v>
       </c>
-      <c r="S67" s="33"/>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S67" s="32"/>
+    </row>
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>24</v>
       </c>
@@ -20816,9 +20818,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S68" s="29"/>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S68" s="33"/>
+    </row>
+    <row r="69" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>26</v>
       </c>
@@ -20838,13 +20840,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P71" s="27" t="s">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P71" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q71" s="27"/>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q71" s="28"/>
+    </row>
+    <row r="72" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J72" s="3" t="s">
         <v>2</v>
       </c>
@@ -20876,7 +20878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J73" s="5" t="s">
         <v>11</v>
       </c>
@@ -20911,7 +20913,7 @@
         <f t="shared" ref="R73:R74" si="7">1-(P73^2)-(Q73^2)</f>
         <v>0</v>
       </c>
-      <c r="S73" s="26">
+      <c r="S73" s="29">
         <f>SUMPRODUCT(R73:R74,M73:M74)</f>
         <v>0</v>
       </c>
@@ -20919,7 +20921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J74" s="5" t="s">
         <v>14</v>
       </c>
@@ -20954,19 +20956,19 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S74" s="26"/>
+      <c r="S74" s="29"/>
       <c r="U74" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P77" s="27" t="s">
+    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P77" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q77" s="27"/>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q77" s="28"/>
+    </row>
+    <row r="78" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J78" s="3" t="s">
         <v>41</v>
       </c>
@@ -20998,7 +21000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J79" s="5" t="b">
         <v>1</v>
       </c>
@@ -21033,12 +21035,12 @@
         <f t="shared" ref="R79:R80" si="9">1-(P79^2)-(Q79^2)</f>
         <v>0.5</v>
       </c>
-      <c r="S79" s="34">
+      <c r="S79" s="30">
         <f>SUMPRODUCT(R79:R80,M79:M80)</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J80" s="5" t="b">
         <v>0</v>
       </c>
@@ -21073,12 +21075,12 @@
         <f t="shared" si="9"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="S80" s="34"/>
-    </row>
-    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="S80" s="30"/>
+    </row>
+    <row r="84" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S84" s="12"/>
     </row>
-    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>15</v>
       </c>
@@ -21098,7 +21100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>16</v>
       </c>
@@ -21118,7 +21120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>17</v>
       </c>
@@ -21138,7 +21140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>23</v>
       </c>
@@ -21158,7 +21160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>15</v>
       </c>
@@ -21178,7 +21180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>24</v>
       </c>
@@ -21198,7 +21200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>26</v>
       </c>
@@ -21218,12 +21220,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U121" s="7"/>
       <c r="V121" s="7"/>
     </row>
-    <row r="122" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>15</v>
       </c>
@@ -21242,12 +21244,12 @@
       <c r="F122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P122" s="27" t="s">
+      <c r="P122" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q122" s="27"/>
-    </row>
-    <row r="123" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q122" s="28"/>
+    </row>
+    <row r="123" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>19</v>
       </c>
@@ -21297,7 +21299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>20</v>
       </c>
@@ -21348,12 +21350,12 @@
         <f t="shared" ref="R124:R126" si="11">1-(P124^2)-(Q124^2)</f>
         <v>1</v>
       </c>
-      <c r="S124" s="28">
+      <c r="S124" s="31">
         <f>SUMPRODUCT(R124:R126,M124:M126)</f>
         <v>0.46666666666666667</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>21</v>
       </c>
@@ -21406,9 +21408,9 @@
         <f t="shared" si="11"/>
         <v>0.44444444444444448</v>
       </c>
-      <c r="S125" s="33"/>
-    </row>
-    <row r="126" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S125" s="32"/>
+    </row>
+    <row r="126" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>25</v>
       </c>
@@ -21461,9 +21463,9 @@
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="S126" s="29"/>
-    </row>
-    <row r="127" spans="1:22" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S126" s="33"/>
+    </row>
+    <row r="127" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>28</v>
       </c>
@@ -21483,13 +21485,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="10:19" x14ac:dyDescent="0.45">
-      <c r="P129" s="27" t="s">
+    <row r="129" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P129" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q129" s="27"/>
-    </row>
-    <row r="130" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q129" s="28"/>
+    </row>
+    <row r="130" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J130" s="3" t="s">
         <v>2</v>
       </c>
@@ -21521,7 +21523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="131" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J131" s="5" t="s">
         <v>11</v>
       </c>
@@ -21556,12 +21558,12 @@
         <f t="shared" ref="R131:R132" si="13">1-(P131^2)-(Q131^2)</f>
         <v>0</v>
       </c>
-      <c r="S131" s="34">
+      <c r="S131" s="30">
         <f>SUMPRODUCT(R131:R132,M131:M132)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="132" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="132" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J132" s="5" t="s">
         <v>14</v>
       </c>
@@ -21596,15 +21598,15 @@
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="S132" s="34"/>
-    </row>
-    <row r="135" spans="10:19" x14ac:dyDescent="0.45">
-      <c r="P135" s="27" t="s">
+      <c r="S132" s="30"/>
+    </row>
+    <row r="135" spans="10:19" x14ac:dyDescent="0.25">
+      <c r="P135" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q135" s="27"/>
-    </row>
-    <row r="136" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q135" s="28"/>
+    </row>
+    <row r="136" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J136" s="3" t="s">
         <v>41</v>
       </c>
@@ -21636,7 +21638,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="137" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J137" s="5" t="b">
         <v>1</v>
       </c>
@@ -21671,12 +21673,12 @@
         <f t="shared" ref="R137:R138" si="15">1-(P137^2)-(Q137^2)</f>
         <v>0</v>
       </c>
-      <c r="S137" s="26">
+      <c r="S137" s="29">
         <f>SUMPRODUCT(R137:R138,M137:M138)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="10:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="138" spans="10:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J138" s="5" t="b">
         <v>0</v>
       </c>
@@ -21711,10 +21713,20 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="S138" s="26"/>
+      <c r="S138" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="S131:S132"/>
+    <mergeCell ref="P135:Q135"/>
+    <mergeCell ref="S137:S138"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="S124:S126"/>
     <mergeCell ref="S66:S68"/>
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="P12:Q12"/>
@@ -21727,16 +21739,6 @@
     <mergeCell ref="S34:S35"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="S131:S132"/>
-    <mergeCell ref="P135:Q135"/>
-    <mergeCell ref="S137:S138"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="S79:S80"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="S124:S126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21751,59 +21753,59 @@
       <selection activeCell="B10" sqref="B10:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1"/>
-    <col min="8" max="8" width="2.3984375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="9.1328125" style="1"/>
-    <col min="10" max="10" width="12.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.86328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.73046875" style="1" customWidth="1"/>
-    <col min="15" max="17" width="10.86328125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.73046875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="2.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="17" width="10.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.85546875" style="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9.1328125" style="1"/>
-    <col min="23" max="23" width="8.1328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="2.86328125" style="11" customWidth="1"/>
-    <col min="25" max="16384" width="9.1328125" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" style="11" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="P8" s="27" t="s">
+    <row r="6" spans="1:24" s="11" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="P8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="27"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -21850,7 +21852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -21902,7 +21904,7 @@
         <v>0.97095059445466858</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -21922,7 +21924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -21941,12 +21943,12 @@
       <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
@@ -21996,7 +21998,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -22050,12 +22052,12 @@
         <f>-(P14*LOG(P14,2))-(Q14*LOG(Q14,2))</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="31">
         <f>R10-SUMPRODUCT(R14:R15,M14:M15)</f>
         <v>4.6439344671015403E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
@@ -22109,9 +22111,9 @@
         <f>-(P15*LOG(P15,2))-(Q15*LOG(Q15,2))</f>
         <v>1</v>
       </c>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S15" s="33"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -22131,7 +22133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -22151,7 +22153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
@@ -22170,12 +22172,12 @@
       <c r="F18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P18" s="27" t="s">
+      <c r="P18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q18" s="27"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -22225,7 +22227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J20" s="5" t="s">
         <v>5</v>
       </c>
@@ -22261,12 +22263,12 @@
         <f>-(P20*LOG(P20,2))-(Q20*LOG(Q20,2))</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="31">
         <f>R10-SUMPRODUCT(R20:R21,M20:$M$21)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
@@ -22308,9 +22310,9 @@
         <f>-(P21*LOG(P21,2))-(Q21*LOG(Q21,2))</f>
         <v>0.97095059445466858</v>
       </c>
-      <c r="S21" s="29"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="S21" s="33"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
@@ -22318,18 +22320,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P24" s="27" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P24" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q24" s="27"/>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J25" s="3" t="s">
         <v>1</v>
       </c>
@@ -22361,7 +22363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J26" s="5" t="s">
         <v>10</v>
       </c>
@@ -22397,12 +22399,12 @@
         <f>-(P26*LOG(P26,2))-(Q26*LOG(Q26,2))</f>
         <v>0.65002242164835411</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="31">
         <f>R10-SUMPRODUCT(R26:R27,M26:M27)</f>
         <v>0.25642589168200303</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J27" s="5" t="s">
         <v>13</v>
       </c>
@@ -22438,15 +22440,15 @@
         <f>-(P27*LOG(P27,2))-(Q27*LOG(Q27,2))</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="S27" s="29"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P30" s="27" t="s">
+      <c r="S27" s="33"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P30" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q30" s="27"/>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J31" s="3" t="s">
         <v>2</v>
       </c>
@@ -22478,7 +22480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J32" s="5" t="s">
         <v>11</v>
       </c>
@@ -22514,7 +22516,7 @@
         <f>(Q32*LOG(Q32,2))</f>
         <v>0</v>
       </c>
-      <c r="S32" s="30">
+      <c r="S32" s="34">
         <f>R10-SUMPRODUCT(R32:R33,M32:M33)</f>
         <v>0.41997309402197491</v>
       </c>
@@ -22522,7 +22524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J33" s="5" t="s">
         <v>14</v>
       </c>
@@ -22558,15 +22560,15 @@
         <f>-(P33*LOG(P33,2))-(Q33*LOG(Q33,2))</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="S33" s="32"/>
+      <c r="S33" s="36"/>
       <c r="U33" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S36" s="12"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
@@ -22585,12 +22587,12 @@
       <c r="F38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P38" s="27" t="s">
+      <c r="P38" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q38" s="27"/>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q38" s="28"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>16</v>
       </c>
@@ -22640,7 +22642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>17</v>
       </c>
@@ -22694,12 +22696,12 @@
         <f>-(Q40*LOG(Q40,2))</f>
         <v>0</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="31">
         <f>R32-SUMPRODUCT(R40:R41,M40:M41)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>19</v>
       </c>
@@ -22753,9 +22755,9 @@
         <f>-(Q41*LOG(Q41,2))</f>
         <v>0</v>
       </c>
-      <c r="S41" s="29"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S41" s="33"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>23</v>
       </c>
@@ -22775,13 +22777,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P43" s="27" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P43" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q43" s="27"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q43" s="28"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J44" s="3" t="s">
         <v>1</v>
       </c>
@@ -22813,7 +22815,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J45" s="5" t="s">
         <v>10</v>
       </c>
@@ -22854,14 +22856,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="P47" s="27" t="s">
+    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P47" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q47" s="27"/>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q47" s="28"/>
+    </row>
+    <row r="48" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -22893,7 +22895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J49" s="5" t="b">
         <v>0</v>
       </c>
@@ -22929,12 +22931,12 @@
         <f>-(Q49*LOG(Q49,2))</f>
         <v>0</v>
       </c>
-      <c r="S49" s="28">
+      <c r="S49" s="31">
         <f>R32-SUMPRODUCT(R49:R50,M49:M50)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J50" s="5" t="b">
         <v>1</v>
       </c>
@@ -22970,9 +22972,9 @@
         <f>-(Q50*LOG(Q50,2))</f>
         <v>0</v>
       </c>
-      <c r="S50" s="29"/>
-    </row>
-    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S50" s="33"/>
+    </row>
+    <row r="56" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -22980,7 +22982,7 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -22988,10 +22990,10 @@
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="60" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S60" s="12"/>
     </row>
-    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>15</v>
       </c>
@@ -23010,12 +23012,12 @@
       <c r="F62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="27" t="s">
+      <c r="P62" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q62" s="27"/>
-    </row>
-    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q62" s="28"/>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>20</v>
       </c>
@@ -23065,7 +23067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>21</v>
       </c>
@@ -23119,12 +23121,12 @@
         <f>-(P64*LOG(P64,2))</f>
         <v>0</v>
       </c>
-      <c r="S64" s="28">
+      <c r="S64" s="31">
         <f>R33-SUMPRODUCT(R64:R65,M64:M65)</f>
         <v>0.25162916738782293</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>24</v>
       </c>
@@ -23178,9 +23180,9 @@
         <f>-(P65*LOG(P65,2))-(Q65*LOG(Q65,2))</f>
         <v>1</v>
       </c>
-      <c r="S65" s="29"/>
-    </row>
-    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="S65" s="33"/>
+    </row>
+    <row r="66" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>25</v>
       </c>
@@ -23200,7 +23202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>26</v>
       </c>
@@ -23219,12 +23221,12 @@
       <c r="F67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P67" s="27" t="s">
+      <c r="P67" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q67" s="27"/>
-    </row>
-    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q67" s="28"/>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>28</v>
       </c>
@@ -23274,7 +23276,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J69" s="5" t="s">
         <v>10</v>
       </c>
@@ -23310,12 +23312,12 @@
         <f>-(P69*LOG(P69,2))-(Q69*LOG(Q69,2))</f>
         <v>1</v>
       </c>
-      <c r="S69" s="28">
+      <c r="S69" s="31">
         <f>R33-SUMPRODUCT(R69:R70,M69:M70)</f>
         <v>4.4110417748401076E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J70" s="5" t="s">
         <v>13</v>
       </c>
@@ -23351,17 +23353,17 @@
         <f>-(P70*LOG(P70,2))-(Q70*LOG(Q70,2))</f>
         <v>0.81127812445913283</v>
       </c>
-      <c r="S70" s="29"/>
-    </row>
-    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="P73" s="27" t="s">
+      <c r="S70" s="33"/>
+    </row>
+    <row r="71" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q73" s="27"/>
-    </row>
-    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="Q73" s="28"/>
+    </row>
+    <row r="74" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J74" s="3" t="s">
         <v>3</v>
       </c>
@@ -23393,7 +23395,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J75" s="5" t="b">
         <v>0</v>
       </c>
@@ -23429,12 +23431,12 @@
         <f>-(P75*LOG(P75,2))</f>
         <v>0</v>
       </c>
-      <c r="S75" s="30">
+      <c r="S75" s="34">
         <f>R33-SUMPRODUCT(R75:R76,M75:M76)</f>
         <v>0.45914791702724478</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J76" s="5" t="b">
         <v>1</v>
       </c>
@@ -23470,14 +23472,14 @@
         <f>-(P76*LOG(P76,2))-(Q76*LOG(Q76,2))</f>
         <v>0.91829583405448956</v>
       </c>
-      <c r="S76" s="32"/>
-    </row>
-    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="82" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="S76" s="36"/>
+    </row>
+    <row r="77" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="S82" s="12"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
@@ -23496,12 +23498,12 @@
       <c r="F84" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P84" s="27" t="s">
+      <c r="P84" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q84" s="27"/>
-    </row>
-    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q84" s="28"/>
+    </row>
+    <row r="85" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>21</v>
       </c>
@@ -23551,7 +23553,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>26</v>
       </c>
@@ -23605,12 +23607,12 @@
         <f>-(P86*LOG(P86,2))</f>
         <v>0</v>
       </c>
-      <c r="S86" s="30">
+      <c r="S86" s="34">
         <f>R76-SUMPRODUCT(R86:R87,M86:M87)</f>
         <v>0.91829583405448956</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>28</v>
       </c>
@@ -23664,15 +23666,15 @@
         <f>-(Q87*LOG(Q87,2))</f>
         <v>0</v>
       </c>
-      <c r="S87" s="32"/>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="P89" s="27" t="s">
+      <c r="S87" s="36"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P89" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q89" s="27"/>
-    </row>
-    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q89" s="28"/>
+    </row>
+    <row r="90" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J90" s="3" t="s">
         <v>1</v>
       </c>
@@ -23704,7 +23706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J91" s="5" t="s">
         <v>10</v>
       </c>
@@ -23740,12 +23742,12 @@
         <f>-(Q91*LOG(Q91,2))</f>
         <v>0</v>
       </c>
-      <c r="S91" s="28">
+      <c r="S91" s="31">
         <f>R76-SUMPRODUCT(R91:R92,M91:M92)</f>
         <v>0.25162916738782293</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J92" s="5" t="s">
         <v>13</v>
       </c>
@@ -23781,9 +23783,9 @@
         <f>-(P92*LOG(P92,2))-(Q92*LOG(Q92,2))</f>
         <v>1</v>
       </c>
-      <c r="S92" s="29"/>
-    </row>
-    <row r="97" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="S92" s="33"/>
+    </row>
+    <row r="97" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>15</v>
       </c>
@@ -23802,12 +23804,12 @@
       <c r="F97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P97" s="27" t="s">
+      <c r="P97" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q97" s="27"/>
-    </row>
-    <row r="98" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q97" s="28"/>
+    </row>
+    <row r="98" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>20</v>
       </c>
@@ -23857,7 +23859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>24</v>
       </c>
@@ -23911,12 +23913,12 @@
         <f>-(P99*LOG(P99,2))</f>
         <v>0</v>
       </c>
-      <c r="S99" s="30">
+      <c r="S99" s="34">
         <f>R75-SUMPRODUCT(R99:R100,M99:M100)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>25</v>
       </c>
@@ -23970,15 +23972,15 @@
         <f>-(P100*LOG(P100,2))</f>
         <v>0</v>
       </c>
-      <c r="S100" s="32"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="P102" s="27" t="s">
+      <c r="S100" s="36"/>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P102" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q102" s="27"/>
-    </row>
-    <row r="103" spans="1:19" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="Q102" s="28"/>
+    </row>
+    <row r="103" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J103" s="3" t="s">
         <v>1</v>
       </c>
@@ -24010,7 +24012,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J104" s="5" t="s">
         <v>10</v>
       </c>
@@ -24046,12 +24048,12 @@
         <f>-(P104*LOG(P104,2))</f>
         <v>0</v>
       </c>
-      <c r="S104" s="28">
+      <c r="S104" s="31">
         <f>R75-SUMPRODUCT(R104:R105,M104:M105)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J105" s="5" t="s">
         <v>13</v>
       </c>
@@ -24087,10 +24089,25 @@
         <f>-(P105*LOG(P105,2))</f>
         <v>0</v>
       </c>
-      <c r="S105" s="29"/>
+      <c r="S105" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="S40:S41"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="S49:S50"/>
     <mergeCell ref="S64:S65"/>
     <mergeCell ref="S99:S100"/>
     <mergeCell ref="P102:Q102"/>
@@ -24104,21 +24121,6 @@
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="S91:S92"/>
     <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="S26:S27"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="S40:S41"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="S20:S21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
